--- a/Ivan_Remain_Product.xlsx
+++ b/Ivan_Remain_Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gautam.vavadiya\D\Personal\Jewel\Data_Extraction\Jewel_Data_Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFFEB4-D023-4EC9-A0EC-AB2FE29BCF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75C13D-A624-40BA-9B9E-FAEDF21C3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{7169A74C-FA20-4024-92C2-5C6CBD97DE75}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
